--- a/src/test/resources/ExcelFiles/ScenarioStatus.xlsx
+++ b/src/test/resources/ExcelFiles/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="77">
   <si>
     <t>Assign</t>
   </si>
@@ -143,6 +143,114 @@
   </si>
   <si>
     <t>2023-08-24 00:51:36</t>
+  </si>
+  <si>
+    <t>The user should not be able to login with invalid multiple data</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:37:45</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:37:54</t>
+  </si>
+  <si>
+    <t>The user should be able to login with valid data</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:38:04</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:38:22</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:38:43</t>
+  </si>
+  <si>
+    <t>The user should be able to add a new address</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:39:13</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:39:38</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:40:12</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:41:48</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:46:10</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:47:55</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:50:38</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:51:27</t>
+  </si>
+  <si>
+    <t>2023-09-06 16:59:16</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:00:59</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:04:30</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:06:13</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:08:01</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:09:27</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:13:10</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:24:06</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:26:09</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:33:02</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:34:07</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:37:18</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:51:52</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:54:26</t>
+  </si>
+  <si>
+    <t>2023-09-06 17:55:24</t>
+  </si>
+  <si>
+    <t>2023-09-06 18:00:13</t>
+  </si>
+  <si>
+    <t>2023-09-06 18:00:48</t>
+  </si>
+  <si>
+    <t>2023-09-06 18:01:44</t>
+  </si>
+  <si>
+    <t>2023-09-06 18:02:21</t>
+  </si>
+  <si>
+    <t>2023-09-06 18:02:37</t>
   </si>
 </sst>
 </file>
@@ -495,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,6 +1006,567 @@
         <v>40</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ExcelFiles/ScenarioStatus.xlsx
+++ b/src/test/resources/ExcelFiles/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="79">
   <si>
     <t>Assign</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>2023-09-06 18:02:37</t>
+  </si>
+  <si>
+    <t>2023-09-06 22:18:54</t>
+  </si>
+  <si>
+    <t>2023-09-06 22:19:10</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,6 +1573,40 @@
         <v>76</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
